--- a/indianEagle.xlsx
+++ b/indianEagle.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IE\eclipse-workspace\IndianEagleProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06db1947ac59b598/Desktop/UI/Demo/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C2CDF-EA9B-4D92-BDA5-F580BA3A0063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="227" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
